--- a/ResultadoEleicoesDistritos/PORTALEGRE_AVIS.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_AVIS.xlsx
@@ -597,64 +597,64 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>663</v>
+        <v>600</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
